--- a/biology/Médecine/Principe_de_Dale/Principe_de_Dale.xlsx
+++ b/biology/Médecine/Principe_de_Dale/Principe_de_Dale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En science neuronale, le principe de Dale (ou loi de Dale) est une règle attribuée au neuro-scientifique Henry Hallett Dale. Ce principe spécifie que toutes les connexions synaptiques d'un neurone effectuent la même tâche vers les autres cellules, sans considération de la nature de ces-dernières. Néanmoins, des désaccords sont survenus en ce qui concerne la formulation de ce principe.
 En raison d'une ambiguïté dans la déclaration initiale, il existe en fait deux versions du principe, l'une qui s'est avérée définitivement fausse, et l'autre qui reste une règle empirique précieuse. Le terme "Principe de Dale" a été utilisé pour la première fois par Sir John Eccles en 1954, dans un passage qui disait : "Conformément au principe de Dale (1934, 1952) selon lequel le même transmetteur chimique est libéré de toutes les terminaisons synaptiques d'un neurone...". Certains auteurs modernes ont compris le principe comme indiquant que les neurones libèrent un et un seul transmetteur à toutes leurs synapses, ce qui est faux. D'autres, dont Eccles lui-même dans des publications ultérieures, ont compris que les neurones libèrent le même ensemble de transmetteurs à toutes leurs synapses.
